--- a/docs/后端API_V0.4.xlsx
+++ b/docs/后端API_V0.4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE4340A-8715-42A2-82DC-5A2AF8528CBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A31027-4F6B-4467-ADB3-286D69FC1D74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,10 @@
   </si>
   <si>
     <t>{"connections": "5",...}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块列表分为两个表，static_list中的是静态的模块，不可安装/卸载，shared_list中是动态模块，可以安装/卸载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,8 +811,8 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1354,6 +1358,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>9</v>
       </c>

--- a/docs/后端API_V0.4.xlsx
+++ b/docs/后端API_V0.4.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A31027-4F6B-4467-ADB3-286D69FC1D74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="360" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="API列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/load_log_text/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text":"日志文件具体内容"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配置管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +324,6 @@
     <t>{"error":"具体错误信息"}</t>
   </si>
   <si>
-    <t>{"error":"具体错误信息"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/backup_log_text/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,18 +352,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"字段名称":"字段值"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"info":"清除成功"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,14 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"info":"获取成功"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取Apahce日志文件文本，保留部分字段为json格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/save_apache_path/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,13 +397,21 @@
   </si>
   <si>
     <t>模块列表分为两个表，static_list中的是静态的模块，不可安装/卸载，shared_list中是动态模块，可以安装/卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体筛选后的内容，如["第一行的日志文本","第二行的日志文本",...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如{"status":"404"}，如果发送{}，则返回所有日志内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,12 +786,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -848,7 +827,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -933,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -958,7 +937,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -977,7 +956,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,25 +1023,25 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1070,15 +1049,15 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1087,13 +1066,13 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1101,30 +1080,30 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1136,68 +1115,68 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="3" t="s">
-        <v>9</v>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
+      <c r="B24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
@@ -1207,25 +1186,25 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,25 +1217,25 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1269,25 +1248,25 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1299,68 +1278,68 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="3" t="s">
-        <v>9</v>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>53</v>
+      <c r="B35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="F37" s="3" t="s">
         <v>9</v>
       </c>
@@ -1370,25 +1349,25 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,66 +1379,35 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F41" s="3" t="s">
-        <v>9</v>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="3"/>
+      <c r="F42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
